--- a/contracts/relatorio_contratos.xlsx
+++ b/contracts/relatorio_contratos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>joao@email.com</t>
+          <t>yancarlostrab@gmail.com</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -621,6 +621,1457 @@
         </is>
       </c>
       <c r="M3" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yuri Costa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123.123.123-00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13.323.345/0001-98</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>São Luís – MA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cohatrac IV, MA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Vale</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>yuri@email.com</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedro Oliveira </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">147.258.369-99 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11.987.654/0001-22 </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tech Solutions </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belo Horizonte - MG </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Savassi, MG </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desenvolvimento Web </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15/02/2023 </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15/08/2023 </t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (3x) </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pedro.oliveira@email.com </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana Souza </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">369.258.147-77 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22.654.987/0001-55 </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Green Energy Ltda </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curitiba - PR </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centro Cívico, PR </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consultoria Energética </t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ana.souza@email.com </t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rafael Mendes </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258.147.369-88 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.789.456/0001-66 </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Logistics </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Porto Alegre - RS </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Navegantes, RS </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Logística e Transporte </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2023 </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/01/2024 </t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (6x) </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rafael.mendes@email.com </t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camila Freitas </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">159.357.852-00 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44.123.654/0001-77 </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MedCare Serviços </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recife - PE </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boa Viagem, PE </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gestão Hospitalar </t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (4x) </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">camila.freitas@email.com </t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduardo Lima </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">753.951.456-11 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55.321.987/0001-88 </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EduTech Academy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianópolis - SC </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trindade, SC </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Treinamentos Online </t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eduardo.lima@email.com </t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fernando Neves</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">852.963.741-22 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66.654.321/0001-99 </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fashion Retail </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São Paulo - SP </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardins, SP </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consultoria de Moda </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25/09/2023 </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25/03/2024 </t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (5x) </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fernando.neves@email.com </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustavo Ribeiro </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">951.753.852-33 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77.789.123/0001-00 </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Safe Security </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasília - DF </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Asa Sul, DF</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança Cibernética </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/10/2023 </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/04/2024 </t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (6x) </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gustavo.ribeiro@email.com </t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucas Andrade </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">321.654.987-00 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88.654.321/0001-11 </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São Luís - MA </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cohatrac IV, MA </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mineração </t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>42279</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>42285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (5x) </t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lucas.andrade@email.com </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beatriz Souza </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">741.852.963-10 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99.753.852/0001-22 </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Green Energy Ltda </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curitiba - PR </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centro Cívico, PR </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Energia Solar </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15/06/2014</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>15/12/2014</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">beatriz.souza@email.com </t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renato Lima </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">963.258.741-99 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11.852.963/0001-33 </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tech Solutions </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belo Horizonte - MG </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Savassi, MG </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desenvolvimento de Software </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/04/2012 </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/10/2012 </t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (6x) </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">renato.lima@email.com </t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mariana Torres </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258.369.147-88 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22.741.852/0001-44 </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Logistics </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Porto Alegre - RS </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Navegantes, RS </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transporte Internacional </t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>40666</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>40672</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (4x) </t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mariana.torres@email.com </t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roberto Almeida </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.789.456-66 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.963.741/0001-55 </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MedCare Serviços </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recife - PE </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boa Viagem, PE </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consultoria Médica </t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>41493</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11000</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">roberto.almeida@email.com </t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanessa Ribeiro </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">147.258.369-77 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44.369.258/0001-66 </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EduTech Academy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianópolis - SC </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trindade, SC </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Educação Online </t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>40522</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>40881</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (5x) </t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vanessa.ribeiro@email.com </t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo Neves </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">369.147.258-55 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55.258.369/0001-77 </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fashion Retail </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São Paulo - SP </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardins, SP </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consultoria de Moda </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18/06/2012 </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18/12/2012 </t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>17500</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (6x) </t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ricardo.neves@email.com </t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernanda Lopes </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">852.963.147-44 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66.147.852/0001-88 </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Safe Security </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasília - DF </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asa Sul, DF </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Segurança Digital </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25/08/2015 </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25/02/2016 </t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (3x) </t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fernanda.lopes@email.com </t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diego Martins </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">741.369.258-33 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77.369.258/0001-99 </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contabilidade LTDA </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rio de Janeiro - RJ </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copacabana, RJ </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auditoria Financeira </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14/02/2014 </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14/08/2014 </t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>19500</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">diego.martins@email.com </t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Priscila Nogueira </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">963.741.258-22 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88.741.963/0001-00 </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supermercados Mateus </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São Luís - MA </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cohatrac IV, MA </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Varejo </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/11/2013 </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/05/2014 </t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (4x) </t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">priscila.nogueira@email.com </t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Mendes </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258.963.147-11 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99.852.963/0001-11 </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">São Luís - MA </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cohatrac IV, MA </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mineração </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22/09/2012 </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22/03/2013 </t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>18500</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (5x) </t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">carlos.mendes@email.com </t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanda Silva </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">159.357.852-88 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22.159.357/0001-22 </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Green Energy Ltda </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curitiba - PR </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centro Cívico, PR </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eficiência Energética </t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>40456</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>40462</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amanda.silva@email.com </t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guilherme Rocha </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">357.159.852-77 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.357.159/0001-33 </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tech Solutions </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belo Horizonte - MG </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Savassi, MG </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TI e Suporte </t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>40550</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12500</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (3x) </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">guilherme.rocha@email.com </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laura Fontes </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">741.852.369-66 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44.741.852/0001-44 </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Logistics </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Porto Alegre - RS </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Navegantes, RS </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armazém e Distribuição </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17/04/2015 </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17/10/2015 </t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelado (4x) </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">laura.fontes@email.com </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Pendente Assinatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thiago Castro </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">369.258.147-55 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55.369.258/0001-55 </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MedCare Serviços </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recife - PE </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boa Viagem, PE </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consultoria em Saúde </t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>41401</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>41760</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13500</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À vista </t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thiago.castro@email.com </t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Pendente Assinatura</t>
         </is>
